--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1098714.632481237</v>
+        <v>1109019.657960783</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9332286.234424362</v>
+        <v>9654200.856693137</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15376364.69920788</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5172038.213090742</v>
+        <v>4549320.800553655</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>102.8072944612053</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>65.18997031407207</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>82.08032451734425</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>85.40504649508884</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>104.2389920686873</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>102.8072944612053</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>65.18997031407207</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>82.08032451734425</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>85.40504649508884</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>104.2389920686873</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>102.8072944612053</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>65.18997031407207</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>82.08032451734425</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>85.40504649508884</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>104.2389920686873</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>102.8072944612053</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>65.18997031407207</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>82.08032451734425</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>85.40504649508884</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>104.2389920686873</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>102.8072944612053</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>65.18997031407207</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>82.08032451734425</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>85.40504649508884</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>104.2389920686873</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>102.8072944612053</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>65.18997031407207</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>82.08032451734425</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>85.40504649508884</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>104.2389920686873</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.33308182865796</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.60456516004908</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>23.18701839359702</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>12.40384259582287</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>1.039115350686359</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>27.55363212018358</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>19.87306092428484</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.28337681805412</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.399283087393993</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>18.4413633168028</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>12.40384259582287</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>1.039115350686359</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.14851141068969</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>27.55363212018358</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>19.87306092428484</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>15.38647877200375</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>23.95052206866614</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>27.57202312235182</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.28337681805412</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>56.33308182865796</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.60456516004908</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.399283087393993</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>18.4413633168028</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>20.87596173380811</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>1.039115350686359</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27.55363212018358</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>19.87306092428484</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.28337681805412</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>56.33308182865796</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.60456516004908</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>23.18701839359702</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>1.039115350686359</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>23.14851141068969</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>27.55363212018358</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>19.87306092428484</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.28337681805412</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>56.33308182865796</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.60456516004908</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.399283087393993</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>18.4413633168028</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>1.039115350686359</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.01540126757979</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>27.55363212018358</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>19.87306092428484</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>27.57202312235182</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.28337681805412</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>140.6990129730604</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>159.6203194587771</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>160.7486139555533</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>146.8744752159253</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>144.5906452735836</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>150.0028070798734</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>162.8734212222032</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>170.9704963044516</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>102.8072944612053</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>96.76977374022535</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>83.32845731427986</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>77.68798724314985</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>65.18997031407207</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>82.08032451734425</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>85.40504649508884</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.5144425550922</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>104.2389920686873</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>103.1821451521598</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>105.4999098948534</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>95.05446298695395</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>108.3164532130686</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9379542667543</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.827362130477</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>334.6063639576373</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>192.1489800533743</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>120.00781893462</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>198.1874530083488</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>221.0148938177905</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3076228770638</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0891689090514</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7789755713265</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>80.63946708321156</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.36593114440248</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>166.9587638390809</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>199.1395267405568</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9246486432012</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7777423262832</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>160.3313014395517</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>149.0378558141978</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28332194186272</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.30634958470515</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>167.7054790031679</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>220.300458121695</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>227.0344857453497</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3073982456449</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.827362130477</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>334.6063639576373</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>192.1489800533743</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>120.00781893462</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>198.1874530083488</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>221.0148938177905</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3076228770638</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0891689090514</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>109.7789755713265</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>80.63946708321156</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.36593114440248</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>166.9587638390809</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>199.1395267405568</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9246486432012</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7777423262832</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>160.3313014395517</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>149.0378558141978</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>78.28332194186272</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.30634958470515</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>167.7054790031679</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>220.300458121695</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>227.0344857453497</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3073982456449</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.827362130477</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>334.6063639576373</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>192.1489800533743</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>120.00781893462</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>198.1874530083488</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>221.0148938177905</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3076228770638</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0891689090514</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>109.7789755713265</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>80.63946708321156</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>84.36593114440248</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>166.9587638390809</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>199.1395267405568</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9246486432012</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7777423262832</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>160.3313014395517</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>149.0378558141978</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>78.28332194186272</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.30634958470515</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>167.7054790031679</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>220.300458121695</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>227.0344857453497</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3073982456449</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.827362130477</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>334.6063639576373</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>192.1489800533743</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>120.00781893462</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>198.1874530083488</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>221.0148938177905</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3076228770638</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0891689090514</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>109.7789755713265</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>80.63946708321156</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.36593114440248</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>166.9587638390809</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>199.1395267405568</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9246486432012</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7777423262832</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>160.3313014395517</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>149.0378558141978</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>78.28332194186272</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.30634958470515</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>167.7054790031679</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>220.300458121695</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>227.0344857453497</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3073982456449</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.827362130477</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>334.6063639576373</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>192.1489800533743</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>120.00781893462</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>198.1874530083488</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>221.0148938177905</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3076228770638</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0891689090514</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>109.7789755713265</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>80.63946708321156</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>84.36593114440248</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>166.9587638390809</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>199.1395267405568</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9246486432012</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7777423262832</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>160.3313014395517</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>149.0378558141978</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>78.28332194186272</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.30634958470515</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>167.7054790031679</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>220.300458121695</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>227.0344857453497</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3073982456449</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.827362130477</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>334.6063639576373</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>192.1489800533743</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>120.00781893462</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>198.1874530083488</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>221.0148938177905</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3076228770638</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0891689090514</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>109.7789755713265</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>80.63946708321156</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>84.36593114440248</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>166.9587638390809</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>199.1395267405568</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9246486432012</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7777423262832</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>160.3313014395517</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>149.0378558141978</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>78.28332194186272</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.30634958470515</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>167.7054790031679</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>220.300458121695</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>227.0344857453497</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3073982456449</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>298.3679105190781</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>280.906960626605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>270.3171104762805</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>297.5644389278593</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>322.510114597309</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>330.4614309860744</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>250.2404328132348</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>107.7830489089718</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.64188779021751</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>113.8215218639463</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>136.648962673388</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>166.9416917326614</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>243.3863273257324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>264.8750375730106</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>285.3651695340666</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>301.8720075116511</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.16725250546486</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>88.34256784391326</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>63.07913442023627</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>73.27914931099846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>60.7032812489814</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>52.72323776464887</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>25.41304442692403</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>82.59283269467841</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>114.7735955961543</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>141.5587174987987</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>148.4346560050228</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>167.3290520165171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>121.407054059075</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>121.3167646329019</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.46604903753482</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>82.88088995422535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>64.24954187380987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>62.06803150216669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>61.05511687852876</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>83.41181118188075</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>75.9653702951492</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>64.67192466979529</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>83.3395478587654</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>135.9345269772926</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>142.6685546009472</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>201.9414671012425</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
-        <v>167.7717121794255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>202.1570671921885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>141.3437242446347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>134.2187222076923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298.3679105190781</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>280.906960626605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>270.3171104762805</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>297.5644389278593</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>322.510114597309</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>330.4614309860744</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>250.2404328132348</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>107.7830489089718</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.64188779021751</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>113.8215218639463</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>136.648962673388</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>166.9416917326614</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>243.3863273257324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>264.8750375730106</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>285.3651695340666</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>301.8720075116511</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.16725250546486</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>88.34256784391326</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>63.07913442023627</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>73.27914931099846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>60.7032812489814</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>52.72323776464887</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>25.41304442692403</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>82.59283269467841</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>114.7735955961543</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>141.5587174987987</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>148.4346560050228</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>167.3290520165171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>121.407054059075</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>121.3167646329019</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.46604903753482</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>82.88088995422535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>64.24954187380987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>62.06803150216669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>61.05511687852876</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>83.41181118188075</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>75.9653702951492</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>64.67192466979529</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>83.3395478587654</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>135.9345269772926</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>142.6685546009472</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>201.9414671012425</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>167.7717121794255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>202.1570671921885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>141.3437242446347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>134.2187222076923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>298.3679105190781</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>280.906960626605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>270.3171104762805</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>297.5644389278593</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>322.510114597309</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>330.4614309860744</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>250.2404328132348</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>107.7830489089718</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>35.64188779021751</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>113.8215218639463</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>136.648962673388</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>166.9416917326614</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>243.3863273257324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>264.8750375730106</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>285.3651695340666</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>301.8720075116511</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82.16725250546486</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>88.34256784391326</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>63.07913442023627</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>73.27914931099846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>60.7032812489814</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>52.72323776464887</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>25.41304442692403</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>82.59283269467841</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>114.7735955961543</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>141.5587174987987</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>148.4346560050228</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>167.3290520165171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>121.407054059075</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>121.3167646329019</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.46604903753482</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>82.88088995422535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>64.24954187380987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>62.06803150216669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>61.05511687852876</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>83.41181118188075</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>75.9653702951492</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>64.67192466979529</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>83.3395478587654</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>135.9345269772926</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>142.6685546009472</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>201.9414671012425</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>167.7717121794255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>202.1570671921885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>141.3437242446347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>134.2187222076923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>298.3679105190781</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>280.906960626605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>270.3171104762805</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>297.5644389278593</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>322.510114597309</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>330.4614309860744</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>250.2404328132348</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>107.7830489089718</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>35.64188779021751</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>113.8215218639463</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>136.648962673388</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>166.9416917326614</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
-        <v>243.3863273257324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>264.8750375730106</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>285.3651695340666</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>301.8720075116511</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.16725250546486</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>88.34256784391326</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>63.07913442023627</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>73.27914931099846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>60.7032812489814</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>52.72323776464887</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>25.41304442692403</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>82.59283269467841</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>114.7735955961543</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>141.5587174987987</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>148.4346560050228</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>167.3290520165171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>121.407054059075</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>121.3167646329019</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.46604903753482</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>82.88088995422535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>64.24954187380987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>62.06803150216669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>61.05511687852876</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>83.41181118188075</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>75.9653702951492</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>64.67192466979529</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>83.3395478587654</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>135.9345269772926</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>142.6685546009472</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>201.9414671012425</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
-        <v>167.7717121794255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>202.1570671921885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>141.3437242446347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>134.2187222076923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>298.3679105190781</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>280.906960626605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>270.3171104762805</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>297.5644389278593</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>322.510114597309</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>330.4614309860744</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>250.2404328132348</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>107.7830489089718</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.64188779021751</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>113.8215218639463</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>136.648962673388</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>166.9416917326614</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>243.3863273257324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>264.8750375730106</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>285.3651695340666</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>301.8720075116511</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.16725250546486</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>88.34256784391326</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>63.07913442023627</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>73.27914931099846</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>60.7032812489814</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>52.72323776464887</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>25.41304442692403</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>82.59283269467841</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>114.7735955961543</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>141.5587174987987</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
-        <v>148.4346560050228</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>167.3290520165171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>121.407054059075</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.3167646329019</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.46604903753482</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>82.88088995422535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>64.24954187380987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>62.06803150216669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>61.05511687852876</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>83.41181118188075</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>75.9653702951492</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>64.67192466979529</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>83.3395478587654</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>135.9345269772926</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>142.6685546009472</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>201.9414671012425</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>167.7717121794255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>202.1570671921885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>141.3437242446347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.2187222076923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.827362130477</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>334.6063639576373</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>192.1489800533743</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>120.00781893462</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>198.1874530083488</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>221.0148938177905</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3076228770638</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0891689090514</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>109.7789755713265</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>80.63946708321156</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.36593114440248</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>166.9587638390809</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>199.1395267405568</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9246486432012</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7777423262832</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>160.3313014395517</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>149.0378558141978</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>78.28332194186272</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.30634958470515</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>167.7054790031679</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>220.300458121695</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.0344857453497</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3073982456449</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290953.4721719505</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>290953.4721719505</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>290953.4721719505</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>290953.4721719505</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>290953.4721719505</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>290953.4721719505</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>450616.5633769634</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>450616.5633769634</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>450616.5633769634</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>450616.5633769634</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>450616.5633769634</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290953.4721719505</v>
+        <v>279042.8426738942</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094825</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="C2" t="n">
         <v>696384.8879094826</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094829</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="E2" t="n">
-        <v>191608.1918530812</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="F2" t="n">
-        <v>191608.1918530812</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="G2" t="n">
-        <v>191608.1918530812</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="H2" t="n">
-        <v>191608.1918530812</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="I2" t="n">
-        <v>191608.1918530812</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="J2" t="n">
-        <v>191608.1918530812</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="K2" t="n">
-        <v>361981.3122677837</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="L2" t="n">
-        <v>361981.312267784</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="M2" t="n">
-        <v>361981.3122677837</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="N2" t="n">
-        <v>361981.3122677838</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="O2" t="n">
-        <v>361981.3122677839</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="P2" t="n">
-        <v>191608.1918530812</v>
+        <v>194344.9318547681</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95002.10502741829</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67492.74491552198</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>88074.21020986453</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="F4" t="n">
-        <v>88074.21020986453</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="G4" t="n">
-        <v>88074.21020986453</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="H4" t="n">
-        <v>88074.21020986453</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="I4" t="n">
-        <v>88074.21020986453</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="J4" t="n">
-        <v>88074.21020986453</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="K4" t="n">
-        <v>202325.5515182932</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="L4" t="n">
-        <v>202325.5515182932</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="M4" t="n">
-        <v>202325.5515182932</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="N4" t="n">
-        <v>202325.5515182932</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="O4" t="n">
-        <v>202325.5515182932</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="P4" t="n">
-        <v>88074.21020986453</v>
+        <v>73265.8560041397</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2577.841867154739</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>2577.841867154739</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>2577.841867154739</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>2577.841867154739</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>2577.841867154739</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>2577.841867154739</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>9670.401332533511</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>9670.401332533511</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>9670.401332533511</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>9670.401332533511</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>9670.401332533511</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>2577.841867154739</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195141.3279777512</v>
+        <v>195141.3279777514</v>
       </c>
       <c r="C6" t="n">
-        <v>195141.3279777513</v>
+        <v>195141.3279777514</v>
       </c>
       <c r="D6" t="n">
-        <v>195141.3279777517</v>
+        <v>195141.3279777514</v>
       </c>
       <c r="E6" t="n">
-        <v>5954.034748643639</v>
+        <v>-15632.53625437998</v>
       </c>
       <c r="F6" t="n">
-        <v>100956.1397760619</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="G6" t="n">
-        <v>100956.1397760619</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="H6" t="n">
-        <v>100956.1397760619</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="I6" t="n">
-        <v>100956.1397760619</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="J6" t="n">
-        <v>100956.1397760619</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="K6" t="n">
-        <v>82492.61450143508</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="L6" t="n">
-        <v>149985.3594169573</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="M6" t="n">
-        <v>149985.359416957</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="N6" t="n">
-        <v>149985.3594169571</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="O6" t="n">
-        <v>149985.3594169571</v>
+        <v>117467.4637456201</v>
       </c>
       <c r="P6" t="n">
-        <v>100956.1397760619</v>
+        <v>117467.4637456201</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.2496269337036</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.63946708321156</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>79.62027606760826</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>77.68798724314985</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>65.18997031407207</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.08032451734425</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29712,31 +29714,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29825,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>83.32845731427986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>77.68798724314985</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>65.18997031407207</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.08032451734425</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29942,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>79.6679842149502</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30062,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>75.89381200641724</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>77.68798724314985</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>65.18997031407207</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>82.08032451734425</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30299,31 +30301,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.63946708321156</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>79.62027606760826</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30332,43 +30334,43 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>77.68798724314985</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>65.18997031407207</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.08032451734425</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>83.32845731427986</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>65.18997031407207</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.08032451734425</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.49904128751238</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.36593114440248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4753753846581046</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>4.868438158129815</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>18.3269095170316</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>40.34689155362585</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>60.46953158620343</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>75.01780101443391</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>83.47175801134748</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>84.82241832300733</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>80.09540434181329</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>68.35957453306632</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>51.33519356999793</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>29.86129900652969</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>10.83261657789657</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>2.080955746340854</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03803003077264837</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.254348254159287</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>2.456468665169957</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>8.757165768203524</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>24.03033220546142</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>41.07166523413365</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>55.22592246559432</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>64.44604667886847</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>66.15174176926124</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>60.51591992710019</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>48.5693609192414</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.46733153092934</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>15.79190300824065</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>4.72440726475693</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>1.025201954264845</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01673343777363731</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2132370321755311</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>1.895871067887905</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>6.412619113060519</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>15.07585817481005</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>24.77426610184806</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>31.70253112907851</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>33.42587405275166</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>32.63108147827925</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>30.14008523877417</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>25.79004978239331</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.85569366698925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>9.587912374001606</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>3.716139915277209</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9111036829318144</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01163111084593807</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1109019.657960783</v>
+        <v>1025234.256199158</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>696384.8879094826</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="E2" t="n">
         <v>194344.9318547681</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195141.3279777514</v>
+        <v>195097.1921990702</v>
       </c>
       <c r="C6" t="n">
-        <v>195141.3279777514</v>
+        <v>195097.1921990704</v>
       </c>
       <c r="D6" t="n">
-        <v>195141.3279777514</v>
+        <v>195097.1921990704</v>
       </c>
       <c r="E6" t="n">
-        <v>-15632.53625437998</v>
+        <v>-30442.55309349388</v>
       </c>
       <c r="F6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="G6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="H6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="I6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="J6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="K6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="L6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="M6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="N6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="O6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
       <c r="P6" t="n">
-        <v>117467.4637456201</v>
+        <v>102657.4469065062</v>
       </c>
     </row>
   </sheetData>
